--- a/StructureDefinition-ext-R5-Parameters.parameter.xlsx
+++ b/StructureDefinition-ext-R5-Parameters.parameter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-Parameters.parameter.xlsx
+++ b/StructureDefinition-ext-R5-Parameters.parameter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="303">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `Parameters.parameter` 0..* `BackboneElement`
 *  R4: `Parameters.parameter` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Parameters.parameter` is mapped to FHIR R4 element `Parameters.parameter`.</t>
+Element `Parameters.parameter` has is mapped to FHIR R4 element `Parameters.parameter`, but has no comparisons.
+Note available implied context: `Parameters.parameter.part` because `Parameters.parameter.part` is defined as a content reference to `Parameters.parameter`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:Parameters.parameter</t>
   </si>
   <si>
     <t>ID</t>
@@ -340,8 +341,8 @@
     <t>The name of the parameter (reference to the operation definition).</t>
   </si>
   <si>
-    <t>Element `Parameters.parameter.name` is part of an existing definition because parent element `Parameters.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `Parameters.parameter.name` is mapped to FHIR R4 element `Parameters.parameter.name`.</t>
+    <t>Element `Parameters.parameter.name` is part of an existing definition because parent element `Parameters.parameter` requires a cross-version extension.
+Element `Parameters.parameter.name` has is mapped to FHIR R4 element `Parameters.parameter.name`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -422,9 +423,9 @@
     <t>Conveys the content if the parameter is a data type.</t>
   </si>
   <si>
-    <t>Element `Parameters.parameter.value[x]` is part of an existing definition because parent element `Parameters.parameter` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `Parameters.parameter.value[x]` is part of an existing definition because parent element `Parameters.parameter` requires a cross-version extension.
 Note that the target element context `Parameters.parameter.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Parameters.parameter`.
-Element `Parameters.parameter.value[x]` is mapped to FHIR R4 element `Parameters.parameter.value[x]`.
+Element `Parameters.parameter.value[x]` has is mapped to FHIR R4 element `Parameters.parameter.value[x]`, but has no comparisons.
 Note that the target element context `Parameters.parameter.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Parameters.parameter`.</t>
   </si>
   <si>
@@ -537,6 +538,9 @@
   </si>
   <si>
     <t>Extension.extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.daysOfWeek</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:availableTime.extension:daysOfWeek.value[x]</t>
@@ -582,6 +586,9 @@
     <t>Extension.extension:value.extension:availableTime.extension:allDay.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.allDay</t>
+  </si>
+  <si>
     <t>Extension.extension:value.extension:availableTime.extension:allDay.value[x]</t>
   </si>
   <si>
@@ -616,6 +623,9 @@
     <t>Extension.extension:value.extension:availableTime.extension:availableStartTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableStartTime</t>
+  </si>
+  <si>
     <t>Extension.extension:value.extension:availableTime.extension:availableStartTime.value[x]</t>
   </si>
   <si>
@@ -647,6 +657,9 @@
     <t>Extension.extension:value.extension:availableTime.extension:availableEndTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableEndTime</t>
+  </si>
+  <si>
     <t>Extension.extension:value.extension:availableTime.extension:availableEndTime.value[x]</t>
   </si>
   <si>
@@ -709,6 +722,9 @@
     <t>Extension.extension:value.extension:notAvailableTime.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.description</t>
+  </si>
+  <si>
     <t>Extension.extension:value.extension:notAvailableTime.extension:description.value[x]</t>
   </si>
   <si>
@@ -734,6 +750,9 @@
   </si>
   <si>
     <t>Extension.extension:value.extension:notAvailableTime.extension:during.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.during</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:notAvailableTime.extension:during.value[x]</t>
@@ -773,8 +792,8 @@
     <t>When resolving references in resources, the operation definition may specify how references may be resolved between parameters. If a reference cannot be resolved between the parameters, the application should fall back to its general resource resolution methods.</t>
   </si>
   <si>
-    <t>Element `Parameters.parameter.resource` is part of an existing definition because parent element `Parameters.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `Parameters.parameter.resource` is mapped to FHIR R4 element `Parameters.parameter.resource`.</t>
+    <t>Element `Parameters.parameter.resource` is part of an existing definition because parent element `Parameters.parameter` requires a cross-version extension.
+Element `Parameters.parameter.resource` has is mapped to FHIR R4 element `Parameters.parameter.resource`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:resource.id</t>
@@ -822,7 +841,7 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Element `Resource.meta` is mapped to FHIR R4 element `Resource.meta`.</t>
+    <t>Element `Resource.meta` has is mapped to FHIR R4 element `Resource.meta`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:resource.extension:meta.id</t>
@@ -856,7 +875,7 @@
     <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
-    <t>Element `Resource.implicitRules` is mapped to FHIR R4 element `Resource.implicitRules`.</t>
+    <t>Element `Resource.implicitRules` has is mapped to FHIR R4 element `Resource.implicitRules`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:resource.extension:implicitRules.id</t>
@@ -886,7 +905,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>Element `Resource.language` is mapped to FHIR R4 element `Resource.language`.</t>
+    <t>Element `Resource.language` has is mapped to FHIR R4 element `Resource.language`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:resource.extension:language.id</t>
@@ -922,8 +941,8 @@
     <t>A named part of a multi-part parameter.</t>
   </si>
   <si>
-    <t>Element `Parameters.parameter.part` is part of an existing definition because parent element `Parameters.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `Parameters.parameter.part` is mapped to FHIR R4 element `Parameters.parameter.part`.</t>
+    <t>Element `Parameters.parameter.part` is part of an existing definition because parent element `Parameters.parameter` requires a cross-version extension.
+Element `Parameters.parameter.part` has is mapped to FHIR R4 element `Parameters.parameter.part`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:part.id</t>
@@ -1275,7 +1294,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="167.87109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="164.5390625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -3753,7 +3772,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>77</v>
@@ -3815,10 +3834,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3841,7 +3860,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>158</v>
@@ -3874,13 +3893,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -3918,13 +3937,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>77</v>
@@ -3949,14 +3968,14 @@
         <v>93</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4025,7 +4044,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>162</v>
@@ -4128,7 +4147,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>164</v>
@@ -4233,7 +4252,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>166</v>
@@ -4276,7 +4295,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>77</v>
@@ -4338,10 +4357,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4364,13 +4383,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4441,13 +4460,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
@@ -4472,16 +4491,16 @@
         <v>93</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4550,7 +4569,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>162</v>
@@ -4653,7 +4672,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>164</v>
@@ -4758,7 +4777,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>166</v>
@@ -4801,7 +4820,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>77</v>
@@ -4863,10 +4882,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4889,16 +4908,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -4968,13 +4987,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
@@ -4999,16 +5018,16 @@
         <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5077,7 +5096,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>162</v>
@@ -5180,7 +5199,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>164</v>
@@ -5285,7 +5304,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>166</v>
@@ -5328,7 +5347,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -5390,10 +5409,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5416,16 +5435,16 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5495,7 +5514,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>141</v>
@@ -5600,7 +5619,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>144</v>
@@ -5626,7 +5645,7 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>145</v>
@@ -5703,13 +5722,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5734,14 +5753,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5810,7 +5829,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>137</v>
@@ -5913,7 +5932,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>139</v>
@@ -6016,13 +6035,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
@@ -6047,16 +6066,16 @@
         <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6125,7 +6144,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>162</v>
@@ -6228,7 +6247,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>164</v>
@@ -6333,7 +6352,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>166</v>
@@ -6376,7 +6395,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>77</v>
@@ -6438,10 +6457,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6467,13 +6486,13 @@
         <v>87</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6543,13 +6562,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -6574,14 +6593,14 @@
         <v>93</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -6650,7 +6669,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>162</v>
@@ -6753,7 +6772,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>164</v>
@@ -6858,7 +6877,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>166</v>
@@ -6901,7 +6920,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -6963,10 +6982,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6989,13 +7008,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7066,7 +7085,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>141</v>
@@ -7109,7 +7128,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7171,7 +7190,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>144</v>
@@ -7197,7 +7216,7 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>145</v>
@@ -7274,7 +7293,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7317,7 +7336,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7379,7 +7398,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7405,7 +7424,7 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>145</v>
@@ -7482,13 +7501,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7513,16 +7532,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7591,7 +7610,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7694,7 +7713,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7797,7 +7816,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
@@ -7828,10 +7847,10 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -7902,7 +7921,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>137</v>
@@ -8005,7 +8024,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>139</v>
@@ -8110,7 +8129,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>141</v>
@@ -8215,7 +8234,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>144</v>
@@ -8250,7 +8269,7 @@
         <v>146</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8258,7 +8277,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>77</v>
@@ -8320,13 +8339,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8351,14 +8370,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8427,7 +8446,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>137</v>
@@ -8530,7 +8549,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>139</v>
@@ -8635,7 +8654,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>141</v>
@@ -8678,7 +8697,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8740,7 +8759,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>144</v>
@@ -8766,13 +8785,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -8843,13 +8862,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -8874,16 +8893,16 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -8952,7 +8971,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>137</v>
@@ -9055,7 +9074,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>139</v>
@@ -9160,7 +9179,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>141</v>
@@ -9203,7 +9222,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9265,7 +9284,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>144</v>
@@ -9294,13 +9313,13 @@
         <v>114</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -9370,13 +9389,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9401,16 +9420,16 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9479,7 +9498,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>137</v>
@@ -9582,7 +9601,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>139</v>
@@ -9687,7 +9706,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>141</v>
@@ -9730,7 +9749,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9792,7 +9811,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>144</v>
@@ -9818,16 +9837,16 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -9897,7 +9916,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -9940,7 +9959,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10002,7 +10021,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>122</v>
@@ -10028,7 +10047,7 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>145</v>
@@ -10105,13 +10124,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10136,14 +10155,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10212,7 +10231,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -10315,7 +10334,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -10420,7 +10439,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>113</v>
@@ -10525,7 +10544,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>122</v>
@@ -10551,7 +10570,7 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>145</v>
@@ -10759,7 +10778,7 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>145</v>

--- a/StructureDefinition-ext-R5-Parameters.parameter.xlsx
+++ b/StructureDefinition-ext-R5-Parameters.parameter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="300">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -551,15 +551,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-days-of-week-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:value.extension:availableTime.extension:allDay</t>
@@ -1304,8 +1295,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.17578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3893,13 +3884,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -3937,13 +3928,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>77</v>
@@ -3968,14 +3959,14 @@
         <v>93</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4044,7 +4035,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>162</v>
@@ -4147,7 +4138,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>164</v>
@@ -4252,7 +4243,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>166</v>
@@ -4295,7 +4286,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>77</v>
@@ -4357,7 +4348,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>169</v>
@@ -4383,13 +4374,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4460,13 +4451,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
@@ -4491,16 +4482,16 @@
         <v>93</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4569,7 +4560,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>162</v>
@@ -4672,7 +4663,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>164</v>
@@ -4777,7 +4768,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>166</v>
@@ -4820,7 +4811,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>77</v>
@@ -4882,7 +4873,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>169</v>
@@ -4908,16 +4899,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -4987,13 +4978,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
@@ -5018,16 +5009,16 @@
         <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5096,7 +5087,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>162</v>
@@ -5199,7 +5190,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>164</v>
@@ -5304,7 +5295,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>166</v>
@@ -5347,7 +5338,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -5409,7 +5400,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>169</v>
@@ -5435,16 +5426,16 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5514,7 +5505,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>141</v>
@@ -5619,7 +5610,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>144</v>
@@ -5645,7 +5636,7 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>145</v>
@@ -5722,13 +5713,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5753,14 +5744,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5829,7 +5820,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>137</v>
@@ -5932,7 +5923,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>139</v>
@@ -6035,13 +6026,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
@@ -6066,16 +6057,16 @@
         <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6144,7 +6135,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>162</v>
@@ -6247,7 +6238,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>164</v>
@@ -6352,7 +6343,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>166</v>
@@ -6395,7 +6386,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>77</v>
@@ -6457,7 +6448,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>169</v>
@@ -6486,13 +6477,13 @@
         <v>87</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6562,13 +6553,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -6593,14 +6584,14 @@
         <v>93</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -6669,7 +6660,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>162</v>
@@ -6772,7 +6763,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>164</v>
@@ -6877,7 +6868,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>166</v>
@@ -6920,7 +6911,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -6982,7 +6973,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>169</v>
@@ -7008,13 +6999,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7085,7 +7076,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>141</v>
@@ -7128,7 +7119,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7190,7 +7181,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>144</v>
@@ -7216,7 +7207,7 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>145</v>
@@ -7293,7 +7284,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7336,7 +7327,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7398,7 +7389,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7424,7 +7415,7 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>145</v>
@@ -7501,13 +7492,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7532,16 +7523,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7610,7 +7601,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7713,7 +7704,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7816,7 +7807,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
@@ -7847,10 +7838,10 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -7921,7 +7912,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>137</v>
@@ -8024,7 +8015,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>139</v>
@@ -8129,7 +8120,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>141</v>
@@ -8234,7 +8225,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>144</v>
@@ -8269,7 +8260,7 @@
         <v>146</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8277,7 +8268,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>77</v>
@@ -8339,13 +8330,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8370,14 +8361,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8446,7 +8437,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>137</v>
@@ -8549,7 +8540,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>139</v>
@@ -8654,7 +8645,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>141</v>
@@ -8697,7 +8688,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8759,7 +8750,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>144</v>
@@ -8785,13 +8776,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -8862,13 +8853,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -8893,16 +8884,16 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -8971,7 +8962,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>137</v>
@@ -9074,7 +9065,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>139</v>
@@ -9179,7 +9170,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>141</v>
@@ -9222,7 +9213,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9284,7 +9275,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>144</v>
@@ -9313,13 +9304,13 @@
         <v>114</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -9389,13 +9380,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9420,16 +9411,16 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O78" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9498,7 +9489,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>137</v>
@@ -9601,7 +9592,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>139</v>
@@ -9706,7 +9697,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>141</v>
@@ -9749,7 +9740,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9811,7 +9802,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>144</v>
@@ -9840,13 +9831,13 @@
         <v>170</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -9916,7 +9907,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -9959,7 +9950,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10021,7 +10012,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>122</v>
@@ -10047,7 +10038,7 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>145</v>
@@ -10124,13 +10115,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10155,14 +10146,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10231,7 +10222,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -10334,7 +10325,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -10439,7 +10430,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>113</v>
@@ -10544,7 +10535,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>122</v>
@@ -10570,7 +10561,7 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>145</v>
@@ -10778,7 +10769,7 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>145</v>
